--- a/Window/성능테스트/VCAN READ(2024.05.29).xlsx
+++ b/Window/성능테스트/VCAN READ(2024.05.29).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Project\SDV\Vhal-View-App\Window\성능테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E35086-E50E-43D1-BC64-DA94E7CA0B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D905665-1AC6-420C-B0CA-AA5997512055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-1800" windowWidth="29040" windowHeight="15720" xr2:uid="{F6F41598-6A90-41E2-A469-6F5F6AE51D4E}"/>
+    <workbookView xWindow="38280" yWindow="-1800" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F6F41598-6A90-41E2-A469-6F5F6AE51D4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1차" sheetId="1" r:id="rId1"/>
+    <sheet name="2차" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>2024-05-29 01:03:10.523 - INFO - 1 : Ready CAN messages recevie</t>
   </si>
@@ -741,6 +741,130 @@
   <si>
     <t>progress time : 125.36180</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경점 : 프로세스 1회 생성 후 전체 로직 종료 후 종료 시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VCAN 1ms 주기 </t>
+  </si>
+  <si>
+    <t>1차 progress time : 1.31039</t>
+  </si>
+  <si>
+    <t>2차 progress time : 1.33583</t>
+  </si>
+  <si>
+    <t>3차 progress time : 1.35628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCAN 2ms 주기 </t>
+  </si>
+  <si>
+    <t>1차 progress time : 2.41425s</t>
+  </si>
+  <si>
+    <t>2차 progress time : 2.39803s</t>
+  </si>
+  <si>
+    <t>3차 progress time : 2.42943s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCAN 3ms 주기 </t>
+  </si>
+  <si>
+    <t>1차 progress time : 3.45435s</t>
+  </si>
+  <si>
+    <t>2차 progress time : 3.42358s</t>
+  </si>
+  <si>
+    <t>3차 progress time : 3.46143s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCAN 4ms 주기 </t>
+  </si>
+  <si>
+    <t>1차 progress time : 4.44410s</t>
+  </si>
+  <si>
+    <t>2차 progress time : 4.46253s</t>
+  </si>
+  <si>
+    <t>3차 progress time : 4.45026s</t>
+  </si>
+  <si>
+    <t>VCAN 5ms 주기</t>
+  </si>
+  <si>
+    <t>1차 progress time : 5.43081s</t>
+  </si>
+  <si>
+    <t>2차 progress time : 5.42193s</t>
+  </si>
+  <si>
+    <t>3차 progress time : 5.43422s</t>
+  </si>
+  <si>
+    <t>VCAN 6ms 주기</t>
+  </si>
+  <si>
+    <t>1차 progress time : 6.45491s</t>
+  </si>
+  <si>
+    <t>2차 progress time : 6.44419s</t>
+  </si>
+  <si>
+    <t>3차 progress time : 6.46824s</t>
+  </si>
+  <si>
+    <t>VCAN 7ms 주기</t>
+  </si>
+  <si>
+    <t>1차 progress time : 7.43557s</t>
+  </si>
+  <si>
+    <t>2차 progress time : 7.45772s</t>
+  </si>
+  <si>
+    <t>3차 progress time : 7.44218s</t>
+  </si>
+  <si>
+    <t>VCAN 8ms 주기</t>
+  </si>
+  <si>
+    <t>1차 progress time : 8.46591s</t>
+  </si>
+  <si>
+    <t>2차 progress time : 8.46079s</t>
+  </si>
+  <si>
+    <t>3차 progress time : 8.47467s</t>
+  </si>
+  <si>
+    <t>VCAN 9ms 주기</t>
+  </si>
+  <si>
+    <t>1차 progress time : 9.41888s</t>
+  </si>
+  <si>
+    <t>2차 progress time : 9.43942s</t>
+  </si>
+  <si>
+    <t>3차 progress time : 9.40885s</t>
+  </si>
+  <si>
+    <t>VCAN 10ms 주기</t>
+  </si>
+  <si>
+    <t>1차 progress time : 10.41037s</t>
+  </si>
+  <si>
+    <t>2차 progress time : 10.41342s</t>
+  </si>
+  <si>
+    <t>3차 progress time : 10.41530s</t>
   </si>
 </sst>
 </file>
@@ -875,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +1050,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF40115A-D238-49DA-A360-286511063C99}">
   <dimension ref="B2:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView topLeftCell="C52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4474,4 +4607,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8703A6EA-21CF-43D0-8175-9F7FAA251415}">
+  <dimension ref="B2:P18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="1"/>
+      <c r="J4" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="O4" s="18"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="N7" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="J10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="F16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="F17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="F18" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>